--- a/biology/Médecine/Franchise_médicale/Franchise_médicale.xlsx
+++ b/biology/Médecine/Franchise_médicale/Franchise_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Franchise_m%C3%A9dicale</t>
+          <t>Franchise_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La franchise médicale, en vigueur en France au 1er janvier 2008, est une somme d'argent restant à la charge de l'assuré social dans le cas où un remboursement d'assurance-maladie est réalisé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Franchise_m%C3%A9dicale</t>
+          <t>Franchise_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,12 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette franchise est de 50 centimes d'euro par boîte de médicaments, de 50 centimes d'euro pour tous les actes paramédicaux et de 2 euros sur tous les transports sanitaires. Ceci s'ajoute aux autres déremboursements déjà en vigueur.
 Elle est annuellement plafonnée à 50 euros par assuré et n'est pas prise en charge par les assurances complémentaires santé. Les fonds récoltés serviront à financer la lutte contre le cancer et contre la maladie d'Alzheimer ainsi que les soins palliatifs.
-Dispenses
-Les familles modestes (CMUc et AME), les enfants de moins de 18 ans et les femmes enceintes (à partir du 6e mois de grossesse) en sont dispensés.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Franchise_m%C3%A9dicale</t>
+          <t>Franchise_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dispenses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les familles modestes (CMUc et AME), les enfants de moins de 18 ans et les femmes enceintes (à partir du 6e mois de grossesse) en sont dispensés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Franchise_médicale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franchise_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 17 février 2024, il est annoncé dans le Journal Officiel que la franchise passe de 50 centimes à 1 euro à partir du 31 mars 2024[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 17 février 2024, il est annoncé dans le Journal Officiel que la franchise passe de 50 centimes à 1 euro à partir du 31 mars 2024.
 </t>
         </is>
       </c>
